--- a/Code/Results/Cases/Case_8_14/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_8_14/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.16752220276823</v>
+        <v>24.22459845295477</v>
       </c>
       <c r="C2">
-        <v>15.11948820458391</v>
+        <v>15.51194447628495</v>
       </c>
       <c r="D2">
-        <v>4.814014391513919</v>
+        <v>4.818067574256093</v>
       </c>
       <c r="E2">
-        <v>8.205087867878248</v>
+        <v>8.223932249332135</v>
       </c>
       <c r="F2">
-        <v>18.44425757340637</v>
+        <v>17.75427725699579</v>
       </c>
       <c r="G2">
-        <v>2.085052360592525</v>
+        <v>1.724686208694663</v>
       </c>
       <c r="H2">
-        <v>1.635578778506848</v>
+        <v>1.609982046054443</v>
       </c>
       <c r="I2">
-        <v>2.532442797695609</v>
+        <v>2.555410252044484</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>13.70977704870762</v>
+        <v>13.09995940928158</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>11.393378015051</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>7.974458959947231</v>
       </c>
       <c r="N2">
-        <v>8.070654911437003</v>
+        <v>0</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>8.169872281958861</v>
       </c>
       <c r="Q2">
-        <v>14.79367070235785</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>14.17485779151741</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.57364403118405</v>
+        <v>22.64277080274716</v>
       </c>
       <c r="C3">
-        <v>14.37443610522858</v>
+        <v>14.70083292443806</v>
       </c>
       <c r="D3">
-        <v>4.655383610028588</v>
+        <v>4.624126843744176</v>
       </c>
       <c r="E3">
-        <v>8.085067868485842</v>
+        <v>8.150982460857827</v>
       </c>
       <c r="F3">
-        <v>18.02634914456794</v>
+        <v>17.3523563964864</v>
       </c>
       <c r="G3">
-        <v>2.08937427866995</v>
+        <v>2.283680114997479</v>
       </c>
       <c r="H3">
-        <v>1.84960549275255</v>
+        <v>1.696282372798247</v>
       </c>
       <c r="I3">
-        <v>2.708338043456412</v>
+        <v>2.535813158678736</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>13.90029868280878</v>
+        <v>13.28766685224058</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>11.58436807481199</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>8.090496159832092</v>
       </c>
       <c r="N3">
-        <v>7.734351816262697</v>
+        <v>0</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>7.839726604384474</v>
       </c>
       <c r="Q3">
-        <v>14.68746561425792</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>14.06774758312799</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.53489766534602</v>
+        <v>21.61179797849178</v>
       </c>
       <c r="C4">
-        <v>13.89921816230869</v>
+        <v>14.18393924577984</v>
       </c>
       <c r="D4">
-        <v>4.555100358153793</v>
+        <v>4.500983243980064</v>
       </c>
       <c r="E4">
-        <v>8.00881232711615</v>
+        <v>8.104526590172057</v>
       </c>
       <c r="F4">
-        <v>17.7764560774202</v>
+        <v>17.10752175885075</v>
       </c>
       <c r="G4">
-        <v>2.092116689509005</v>
+        <v>2.638655114790714</v>
       </c>
       <c r="H4">
-        <v>1.985589274798623</v>
+        <v>1.814789193084208</v>
       </c>
       <c r="I4">
-        <v>2.820838923287902</v>
+        <v>2.628518591823204</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>14.02295551889275</v>
+        <v>13.40626460212902</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>11.704799785789</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>8.18173543402756</v>
       </c>
       <c r="N4">
-        <v>7.520565551469356</v>
+        <v>0</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>7.630226383633564</v>
       </c>
       <c r="Q4">
-        <v>14.6305298252588</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>14.0063409465703</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.09629604514497</v>
+        <v>21.17647939671077</v>
       </c>
       <c r="C5">
-        <v>13.71100962785103</v>
+        <v>13.97835918263656</v>
       </c>
       <c r="D5">
-        <v>4.515251054621124</v>
+        <v>4.451550464706933</v>
       </c>
       <c r="E5">
-        <v>7.975271448722465</v>
+        <v>8.08354562017295</v>
       </c>
       <c r="F5">
-        <v>17.66615394970002</v>
+        <v>16.99833873241261</v>
       </c>
       <c r="G5">
-        <v>2.093262829243408</v>
+        <v>2.787098378911296</v>
       </c>
       <c r="H5">
-        <v>2.042458301210809</v>
+        <v>1.864385216994331</v>
       </c>
       <c r="I5">
-        <v>2.870753060597891</v>
+        <v>2.670859811012274</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>14.06817656808644</v>
+        <v>13.44967057336186</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>11.7491995793184</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>8.22074575107826</v>
       </c>
       <c r="N5">
-        <v>7.432439502191753</v>
+        <v>0</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>7.543944380570639</v>
       </c>
       <c r="Q5">
-        <v>14.60166937102488</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>13.97489927280322</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.02238655074041</v>
+        <v>21.10312167616228</v>
       </c>
       <c r="C6">
-        <v>13.69149342076077</v>
+        <v>13.95573826353853</v>
       </c>
       <c r="D6">
-        <v>4.51069121663386</v>
+        <v>4.445402929326199</v>
       </c>
       <c r="E6">
-        <v>7.967442879329376</v>
+        <v>8.078050216929498</v>
       </c>
       <c r="F6">
-        <v>17.63541393980342</v>
+        <v>16.96803503987589</v>
       </c>
       <c r="G6">
-        <v>2.093461685559494</v>
+        <v>2.812889833882158</v>
       </c>
       <c r="H6">
-        <v>2.052322225826421</v>
+        <v>1.873004756008675</v>
       </c>
       <c r="I6">
-        <v>2.882888961357183</v>
+        <v>2.682503449517798</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>14.06827584878126</v>
+        <v>13.44992476245213</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>11.74994505974271</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>8.223810387696515</v>
       </c>
       <c r="N6">
-        <v>7.418619391219361</v>
+        <v>0</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>7.53039186415457</v>
       </c>
       <c r="Q6">
-        <v>14.58760297241625</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>13.96059744696149</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.52861052428771</v>
+        <v>21.60500856003634</v>
       </c>
       <c r="C7">
-        <v>13.9289467285317</v>
+        <v>14.19404701406393</v>
       </c>
       <c r="D7">
-        <v>4.560259300957659</v>
+        <v>4.51691873088694</v>
       </c>
       <c r="E7">
-        <v>8.002358730628453</v>
+        <v>8.098972107123583</v>
       </c>
       <c r="F7">
-        <v>17.74099429816325</v>
+        <v>17.01340474849204</v>
       </c>
       <c r="G7">
-        <v>2.09215121543239</v>
+        <v>2.714219934988438</v>
       </c>
       <c r="H7">
-        <v>1.987285929960165</v>
+        <v>1.817621286085594</v>
       </c>
       <c r="I7">
-        <v>2.831533548922644</v>
+        <v>2.642470630323859</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>14.00307141981568</v>
+        <v>13.36539513378295</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>11.66679667827538</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>8.159028935677325</v>
       </c>
       <c r="N7">
-        <v>7.521856990098319</v>
+        <v>0</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>7.629540787485635</v>
       </c>
       <c r="Q7">
-        <v>14.60455434165339</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>13.93663812158343</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.6298537726517</v>
+        <v>23.68934509278061</v>
       </c>
       <c r="C8">
-        <v>14.90679977810881</v>
+        <v>15.21702171973528</v>
       </c>
       <c r="D8">
-        <v>4.767294313471818</v>
+        <v>4.794662085398606</v>
       </c>
       <c r="E8">
-        <v>8.156560071563973</v>
+        <v>8.192918459225245</v>
       </c>
       <c r="F8">
-        <v>18.25521151786572</v>
+        <v>17.38176614448143</v>
       </c>
       <c r="G8">
-        <v>2.086548056650677</v>
+        <v>2.424448388901651</v>
       </c>
       <c r="H8">
-        <v>1.709583220513258</v>
+        <v>1.578473679426559</v>
       </c>
       <c r="I8">
-        <v>2.605204711450439</v>
+        <v>2.508390614821356</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>13.74705486732348</v>
+        <v>13.06627565761018</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>11.37552854477305</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>7.944700755719721</v>
       </c>
       <c r="N8">
-        <v>7.959391554044358</v>
+        <v>0</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>8.054602326093621</v>
       </c>
       <c r="Q8">
-        <v>14.7218989046353</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>13.96021635739113</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.27704001725511</v>
+        <v>27.3074198986609</v>
       </c>
       <c r="C9">
-        <v>16.62606551167368</v>
+        <v>17.08366219373178</v>
       </c>
       <c r="D9">
-        <v>5.139397177507048</v>
+        <v>5.255178304428872</v>
       </c>
       <c r="E9">
-        <v>8.4490695365982</v>
+        <v>8.372727796439602</v>
       </c>
       <c r="F9">
-        <v>19.37097110573994</v>
+        <v>18.39222522584725</v>
       </c>
       <c r="G9">
-        <v>2.076214349132287</v>
+        <v>2.018036761570692</v>
       </c>
       <c r="H9">
-        <v>1.913483034034157</v>
+        <v>1.97567151320354</v>
       </c>
       <c r="I9">
-        <v>2.766735745131112</v>
+        <v>2.841839473517688</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>13.32951205188331</v>
+        <v>12.62080648644189</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>10.93268180922139</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>7.757494253271213</v>
       </c>
       <c r="N9">
-        <v>8.752419784499187</v>
+        <v>0</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>8.833870530277052</v>
       </c>
       <c r="Q9">
-        <v>15.06502481972751</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>14.24810420757704</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>29.66937656132027</v>
+        <v>29.67650973608718</v>
       </c>
       <c r="C10">
-        <v>17.90327317426156</v>
+        <v>18.35780983694327</v>
       </c>
       <c r="D10">
-        <v>5.425588220653869</v>
+        <v>5.654846252042782</v>
       </c>
       <c r="E10">
-        <v>8.561963244854635</v>
+        <v>8.418736624952215</v>
       </c>
       <c r="F10">
-        <v>20.05421721878509</v>
+        <v>18.69297637461023</v>
       </c>
       <c r="G10">
-        <v>2.069122900656863</v>
+        <v>4.090104755163447</v>
       </c>
       <c r="H10">
-        <v>2.249913859361745</v>
+        <v>2.260481811049385</v>
       </c>
       <c r="I10">
-        <v>3.049925608099841</v>
+        <v>3.069570189698881</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>12.95346196365594</v>
+        <v>12.10965136564173</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>10.491604803724</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>7.543877248101897</v>
       </c>
       <c r="N10">
-        <v>9.16260363021725</v>
+        <v>0</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>9.225522055514967</v>
       </c>
       <c r="Q10">
-        <v>15.23299911174348</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>14.1330059643012</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>30.6793779671095</v>
+        <v>30.67512162953649</v>
       </c>
       <c r="C11">
-        <v>19.31547228414305</v>
+        <v>19.49728801405568</v>
       </c>
       <c r="D11">
-        <v>5.793460166440592</v>
+        <v>6.158096461684067</v>
       </c>
       <c r="E11">
-        <v>8.10435161758968</v>
+        <v>7.992909391117588</v>
       </c>
       <c r="F11">
-        <v>19.06548189432565</v>
+        <v>17.17362447425105</v>
       </c>
       <c r="G11">
-        <v>2.06680050415919</v>
+        <v>7.909128709676673</v>
       </c>
       <c r="H11">
-        <v>3.070770576693159</v>
+        <v>3.059962535801339</v>
       </c>
       <c r="I11">
-        <v>3.141902982305568</v>
+        <v>3.136873951074626</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>11.99929879920551</v>
+        <v>11.13459506592969</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>9.859488333123789</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>6.725382558178929</v>
       </c>
       <c r="N11">
-        <v>8.220135384481351</v>
+        <v>0</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>8.24962298133047</v>
       </c>
       <c r="Q11">
-        <v>14.27555411910198</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>12.79515078528271</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31.04786469503815</v>
+        <v>31.04025007553982</v>
       </c>
       <c r="C12">
-        <v>20.22717460976688</v>
+        <v>20.22539082056892</v>
       </c>
       <c r="D12">
-        <v>6.047002556420232</v>
+        <v>6.468104588959458</v>
       </c>
       <c r="E12">
-        <v>8.075338276305386</v>
+        <v>7.976885355641467</v>
       </c>
       <c r="F12">
-        <v>18.11278413393557</v>
+        <v>16.0437557902544</v>
       </c>
       <c r="G12">
-        <v>2.066185657171797</v>
+        <v>9.765860151628338</v>
       </c>
       <c r="H12">
-        <v>4.284310809910311</v>
+        <v>4.272726950683208</v>
       </c>
       <c r="I12">
-        <v>3.160874353453305</v>
+        <v>3.147862406481879</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>11.36342684740642</v>
+        <v>10.62294026251041</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>9.573068649556509</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>6.224513170603784</v>
       </c>
       <c r="N12">
-        <v>7.363345034397974</v>
+        <v>0</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>7.374448732626913</v>
       </c>
       <c r="Q12">
-        <v>13.45879690192952</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>11.88041970534024</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>30.95730126231803</v>
+        <v>30.95267656603484</v>
       </c>
       <c r="C13">
-        <v>20.87077376853113</v>
+        <v>20.77852136349306</v>
       </c>
       <c r="D13">
-        <v>6.238763931006321</v>
+        <v>6.627728667859262</v>
       </c>
       <c r="E13">
-        <v>8.360422176314383</v>
+        <v>8.276160727378405</v>
       </c>
       <c r="F13">
-        <v>17.06187589146757</v>
+        <v>15.20650976618752</v>
       </c>
       <c r="G13">
-        <v>2.066879020082303</v>
+        <v>9.333396370869078</v>
       </c>
       <c r="H13">
-        <v>5.579610659954875</v>
+        <v>5.573459389093155</v>
       </c>
       <c r="I13">
-        <v>3.128698151104897</v>
+        <v>3.122539964620728</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>10.92019410968773</v>
+        <v>10.39726121595948</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>9.463195146757315</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>5.953067730924053</v>
       </c>
       <c r="N13">
-        <v>6.521680609410266</v>
+        <v>0</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>6.52804449064829</v>
       </c>
       <c r="Q13">
-        <v>12.65810510273014</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>11.27848174261044</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>30.68503088263583</v>
+        <v>30.68518522304483</v>
       </c>
       <c r="C14">
-        <v>21.21738672680612</v>
+        <v>21.10143480360117</v>
       </c>
       <c r="D14">
-        <v>6.348821678168074</v>
+        <v>6.674224729190538</v>
       </c>
       <c r="E14">
-        <v>8.731776960818575</v>
+        <v>8.662176555617171</v>
       </c>
       <c r="F14">
-        <v>16.26654134593171</v>
+        <v>14.7300955249122</v>
       </c>
       <c r="G14">
-        <v>2.067954438494937</v>
+        <v>8.017093030201012</v>
       </c>
       <c r="H14">
-        <v>6.51444486925969</v>
+        <v>6.512735322618273</v>
       </c>
       <c r="I14">
-        <v>3.084352019970932</v>
+        <v>3.089725135658427</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>10.71501356257828</v>
+        <v>10.34841822637356</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>9.44226855525269</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>5.86501680204757</v>
       </c>
       <c r="N14">
-        <v>5.954398805341408</v>
+        <v>0</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>5.963649632021828</v>
       </c>
       <c r="Q14">
-        <v>12.10231090366499</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>10.98032918133644</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>30.51911014760466</v>
+        <v>30.52174545150669</v>
       </c>
       <c r="C15">
-        <v>21.25473704318821</v>
+        <v>21.15085705667975</v>
       </c>
       <c r="D15">
-        <v>6.363822407832462</v>
+        <v>6.656284268587942</v>
       </c>
       <c r="E15">
-        <v>8.835867481535574</v>
+        <v>8.775318061149711</v>
       </c>
       <c r="F15">
-        <v>16.04206975136902</v>
+        <v>14.65489480561694</v>
       </c>
       <c r="G15">
-        <v>2.06851730759229</v>
+        <v>7.263658918144205</v>
       </c>
       <c r="H15">
-        <v>6.727009275787742</v>
+        <v>6.727098253512744</v>
       </c>
       <c r="I15">
-        <v>3.063410164129789</v>
+        <v>3.075219680038048</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>10.69574103019237</v>
+        <v>10.36939450915676</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>9.451592912157345</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>5.875148338698447</v>
       </c>
       <c r="N15">
-        <v>5.816911542195703</v>
+        <v>0</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>5.829345907995374</v>
       </c>
       <c r="Q15">
-        <v>11.96450657898765</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>10.95409657411613</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>29.55808090354126</v>
+        <v>29.57308829770917</v>
       </c>
       <c r="C16">
-        <v>20.66054830122922</v>
+        <v>20.71161747046817</v>
       </c>
       <c r="D16">
-        <v>6.216754377787265</v>
+        <v>6.366412220333388</v>
       </c>
       <c r="E16">
-        <v>8.717613062540767</v>
+        <v>8.711509878504947</v>
       </c>
       <c r="F16">
-        <v>15.89388708247884</v>
+        <v>15.08826893062007</v>
       </c>
       <c r="G16">
-        <v>2.071417630827684</v>
+        <v>3.768726077129976</v>
       </c>
       <c r="H16">
-        <v>6.456050365667836</v>
+        <v>6.464641868157872</v>
       </c>
       <c r="I16">
-        <v>2.950535280201195</v>
+        <v>2.992621401621511</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>10.95431300403711</v>
+        <v>10.67171109175709</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>9.597734377041714</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>6.148784370974745</v>
       </c>
       <c r="N16">
-        <v>5.776945915788753</v>
+        <v>0</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>5.810529754894912</v>
       </c>
       <c r="Q16">
-        <v>12.0296718345266</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>11.4189893163479</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>28.95570074668913</v>
+        <v>28.97728192164567</v>
       </c>
       <c r="C17">
-        <v>20.00194126920379</v>
+        <v>20.16186811765931</v>
       </c>
       <c r="D17">
-        <v>6.041288088754309</v>
+        <v>6.135034049374688</v>
       </c>
       <c r="E17">
-        <v>8.398725059188799</v>
+        <v>8.418507836930091</v>
       </c>
       <c r="F17">
-        <v>16.21588299309776</v>
+        <v>15.60942855331711</v>
       </c>
       <c r="G17">
-        <v>2.073079441640712</v>
+        <v>2.419645609882881</v>
       </c>
       <c r="H17">
-        <v>5.702593529878824</v>
+        <v>5.716917080676945</v>
       </c>
       <c r="I17">
-        <v>2.887659034301798</v>
+        <v>2.946028488830286</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>11.24773964925551</v>
+        <v>10.94803747779246</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>9.756030630285085</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>6.395030554772636</v>
       </c>
       <c r="N17">
-        <v>6.044969998438134</v>
+        <v>0</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>6.091678883446158</v>
       </c>
       <c r="Q17">
-        <v>12.37454688382217</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>11.89150914244742</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>28.6086765415522</v>
+        <v>28.63308041857293</v>
       </c>
       <c r="C18">
-        <v>19.20075092894429</v>
+        <v>19.47309611596859</v>
       </c>
       <c r="D18">
-        <v>5.82102445922735</v>
+        <v>5.902917747696824</v>
       </c>
       <c r="E18">
-        <v>8.031145776321429</v>
+        <v>8.050413433725975</v>
       </c>
       <c r="F18">
-        <v>16.99631440565713</v>
+        <v>16.39741987222538</v>
       </c>
       <c r="G18">
-        <v>2.07378632523862</v>
+        <v>1.977635842405303</v>
       </c>
       <c r="H18">
-        <v>4.482863032421403</v>
+        <v>4.503581453632645</v>
       </c>
       <c r="I18">
-        <v>2.859278269956946</v>
+        <v>2.923493873364466</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>11.65912421307102</v>
+        <v>11.2955186185426</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>9.979849362162859</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>6.701698932778716</v>
       </c>
       <c r="N18">
-        <v>6.652170185789361</v>
+        <v>0</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>6.709559000999637</v>
       </c>
       <c r="Q18">
-        <v>13.01853513319456</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>12.52755774831725</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>28.49837792761569</v>
+        <v>28.5224811308019</v>
       </c>
       <c r="C19">
-        <v>18.42052958385876</v>
+        <v>18.80729698780955</v>
       </c>
       <c r="D19">
-        <v>5.599687745750225</v>
+        <v>5.693880866684804</v>
       </c>
       <c r="E19">
-        <v>7.927849705817927</v>
+        <v>7.911925817269158</v>
       </c>
       <c r="F19">
-        <v>18.0224072124884</v>
+        <v>17.32667790302556</v>
       </c>
       <c r="G19">
-        <v>2.073620739806509</v>
+        <v>1.922805110552213</v>
       </c>
       <c r="H19">
-        <v>3.121177289868155</v>
+        <v>3.151224722204655</v>
       </c>
       <c r="I19">
-        <v>2.873035139165976</v>
+        <v>2.936652447019207</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>12.17416628515879</v>
+        <v>11.70781178623547</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>10.25815422787603</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>7.066380130103175</v>
       </c>
       <c r="N19">
-        <v>7.533569657100768</v>
+        <v>0</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>7.600367937823839</v>
       </c>
       <c r="Q19">
-        <v>13.82123585782284</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>13.24709148650149</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.05901225673907</v>
+        <v>29.07392771666127</v>
       </c>
       <c r="C20">
-        <v>17.6630969531358</v>
+        <v>18.17238438112435</v>
       </c>
       <c r="D20">
-        <v>5.369119096519777</v>
+        <v>5.533577725049392</v>
       </c>
       <c r="E20">
-        <v>8.512636869001284</v>
+        <v>8.387947280605943</v>
       </c>
       <c r="F20">
-        <v>19.77242118964012</v>
+        <v>18.70531638852399</v>
       </c>
       <c r="G20">
-        <v>2.071012395006151</v>
+        <v>2.698417819180633</v>
       </c>
       <c r="H20">
-        <v>2.158799220004059</v>
+        <v>2.186677897321153</v>
       </c>
       <c r="I20">
-        <v>2.986441990130365</v>
+        <v>3.027583560264496</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>12.98188903869976</v>
+        <v>12.25919852030037</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>10.61462588746907</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>7.610357375130766</v>
       </c>
       <c r="N20">
-        <v>9.057418693322191</v>
+        <v>0</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>9.130243209837333</v>
       </c>
       <c r="Q20">
-        <v>15.1054109988273</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>14.23360774941328</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>30.80938661013568</v>
+        <v>30.79837971334441</v>
       </c>
       <c r="C21">
-        <v>18.44703213326877</v>
+        <v>18.69198574975608</v>
       </c>
       <c r="D21">
-        <v>5.538774682729554</v>
+        <v>5.977255813233941</v>
       </c>
       <c r="E21">
-        <v>8.73508746243022</v>
+        <v>8.55867107774354</v>
       </c>
       <c r="F21">
-        <v>20.55221782085059</v>
+        <v>18.18754461871244</v>
       </c>
       <c r="G21">
-        <v>2.065513708301962</v>
+        <v>9.561792522997429</v>
       </c>
       <c r="H21">
-        <v>2.427781323217609</v>
+        <v>2.39825092915976</v>
       </c>
       <c r="I21">
-        <v>3.205357690266998</v>
+        <v>3.185673523507514</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>12.86065334952483</v>
+        <v>11.61267913988551</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>10.13850731713413</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>7.217280951882181</v>
       </c>
       <c r="N21">
-        <v>9.564493726961402</v>
+        <v>0</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>9.59783087472043</v>
       </c>
       <c r="Q21">
-        <v>15.44703737112792</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>13.55970217222587</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>31.9020929102902</v>
+        <v>31.87468442056477</v>
       </c>
       <c r="C22">
-        <v>18.95784890753789</v>
+        <v>19.01484417371779</v>
       </c>
       <c r="D22">
-        <v>5.653531449748763</v>
+        <v>6.282494948455636</v>
       </c>
       <c r="E22">
-        <v>8.840375969597991</v>
+        <v>8.643254437250739</v>
       </c>
       <c r="F22">
-        <v>21.02646961914036</v>
+        <v>17.76341044301205</v>
       </c>
       <c r="G22">
-        <v>2.062016677028687</v>
+        <v>14.60478626530099</v>
       </c>
       <c r="H22">
-        <v>2.595398434560439</v>
+        <v>2.530432569143484</v>
       </c>
       <c r="I22">
-        <v>3.340232987304132</v>
+        <v>3.281655183815812</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>12.76965100500206</v>
+        <v>11.16371709637093</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>9.841581432386986</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>6.923536665289023</v>
       </c>
       <c r="N22">
-        <v>9.816629717223552</v>
+        <v>0</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>9.823181500018361</v>
       </c>
       <c r="Q22">
-        <v>15.6496298942309</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>13.05065935889472</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>31.32390547326842</v>
+        <v>31.30598471451879</v>
       </c>
       <c r="C23">
-        <v>18.65665877015634</v>
+        <v>18.85147317673738</v>
       </c>
       <c r="D23">
-        <v>5.586625778788311</v>
+        <v>6.087472757238017</v>
       </c>
       <c r="E23">
-        <v>8.790462714735227</v>
+        <v>8.600350771250238</v>
       </c>
       <c r="F23">
-        <v>20.80722483350449</v>
+        <v>18.15535604133402</v>
       </c>
       <c r="G23">
-        <v>2.063860549760233</v>
+        <v>11.11996934236881</v>
       </c>
       <c r="H23">
-        <v>2.507008775505514</v>
+        <v>2.462575914474243</v>
       </c>
       <c r="I23">
-        <v>3.264642131075932</v>
+        <v>3.227103434237359</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>12.84215120756321</v>
+        <v>11.47039660604358</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>10.03509566146321</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>7.148893350804847</v>
       </c>
       <c r="N23">
-        <v>9.680395365064612</v>
+        <v>0</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>9.704946821389166</v>
       </c>
       <c r="Q23">
-        <v>15.5684787612553</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>13.45234302042806</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.03188567167636</v>
+        <v>29.04683448393466</v>
       </c>
       <c r="C24">
-        <v>17.52675027819183</v>
+        <v>18.04871538510695</v>
       </c>
       <c r="D24">
-        <v>5.335922615852521</v>
+        <v>5.499411903397608</v>
       </c>
       <c r="E24">
-        <v>8.588058766952912</v>
+        <v>8.455755845424919</v>
       </c>
       <c r="F24">
-        <v>19.93064829562915</v>
+        <v>18.8586480823043</v>
       </c>
       <c r="G24">
-        <v>2.070993726940892</v>
+        <v>2.659171772584894</v>
       </c>
       <c r="H24">
-        <v>2.164624802338951</v>
+        <v>2.192625305857082</v>
       </c>
       <c r="I24">
-        <v>2.980023836001092</v>
+        <v>3.019196320041995</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>13.09379503808951</v>
+        <v>12.35474851011691</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>10.67962457321444</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>7.692710682947593</v>
       </c>
       <c r="N24">
-        <v>9.1520927721853</v>
+        <v>0</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>9.22645221006084</v>
       </c>
       <c r="Q24">
-        <v>15.23620472083342</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>14.35857010657461</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.34004130410456</v>
+        <v>26.37888887913899</v>
       </c>
       <c r="C25">
-        <v>16.22837487136862</v>
+        <v>16.67049703206054</v>
       </c>
       <c r="D25">
-        <v>5.051160093012446</v>
+        <v>5.1296561218202</v>
       </c>
       <c r="E25">
-        <v>8.36205750497318</v>
+        <v>8.316190371713471</v>
       </c>
       <c r="F25">
-        <v>19.00763213901927</v>
+        <v>18.1418282602799</v>
       </c>
       <c r="G25">
-        <v>2.078968840454818</v>
+        <v>1.407644183757611</v>
       </c>
       <c r="H25">
-        <v>1.780865154487806</v>
+        <v>1.862220275548397</v>
       </c>
       <c r="I25">
-        <v>2.664703165380843</v>
+        <v>2.762322279540601</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>13.39964413809962</v>
+        <v>12.73604526806333</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>11.04841140805526</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>7.787498393056936</v>
       </c>
       <c r="N25">
-        <v>8.54879707289448</v>
+        <v>0</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>8.635802028081089</v>
       </c>
       <c r="Q25">
-        <v>14.92000410980031</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>14.18419360073007</v>
       </c>
     </row>
   </sheetData>
